--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H2">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N2">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q2">
-        <v>4.606447197948674</v>
+        <v>8.688193111093444</v>
       </c>
       <c r="R2">
-        <v>4.606447197948674</v>
+        <v>78.19373799984099</v>
       </c>
       <c r="S2">
-        <v>0.002875841379671496</v>
+        <v>0.005089835680153781</v>
       </c>
       <c r="T2">
-        <v>0.002875841379671496</v>
+        <v>0.005089835680153781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H3">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N3">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q3">
-        <v>26.92873812361887</v>
+        <v>42.47352572048412</v>
       </c>
       <c r="R3">
-        <v>26.92873812361887</v>
+        <v>382.261731484357</v>
       </c>
       <c r="S3">
-        <v>0.01681182396549059</v>
+        <v>0.02488241961358083</v>
       </c>
       <c r="T3">
-        <v>0.01681182396549059</v>
+        <v>0.02488241961358083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H4">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N4">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q4">
-        <v>17.49293897032865</v>
+        <v>29.43966885695978</v>
       </c>
       <c r="R4">
-        <v>17.49293897032865</v>
+        <v>264.957019712638</v>
       </c>
       <c r="S4">
-        <v>0.01092098000501161</v>
+        <v>0.01724674797671568</v>
       </c>
       <c r="T4">
-        <v>0.01092098000501161</v>
+        <v>0.01724674797671568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H5">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N5">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q5">
-        <v>129.4971065448711</v>
+        <v>155.5300010532733</v>
       </c>
       <c r="R5">
-        <v>129.4971065448711</v>
+        <v>1399.77000947946</v>
       </c>
       <c r="S5">
-        <v>0.08084606672910755</v>
+        <v>0.09111470458506842</v>
       </c>
       <c r="T5">
-        <v>0.08084606672910755</v>
+        <v>0.09111470458506843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H6">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N6">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q6">
-        <v>757.0245614594498</v>
+        <v>760.3315690127132</v>
       </c>
       <c r="R6">
-        <v>757.0245614594498</v>
+        <v>6842.984121114419</v>
       </c>
       <c r="S6">
-        <v>0.472616414715932</v>
+        <v>0.4454278006052705</v>
       </c>
       <c r="T6">
-        <v>0.472616414715932</v>
+        <v>0.4454278006052706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H7">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N7">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q7">
-        <v>491.764017751543</v>
+        <v>527.0085125622533</v>
       </c>
       <c r="R7">
-        <v>491.764017751543</v>
+        <v>4743.07661306028</v>
       </c>
       <c r="S7">
-        <v>0.3070121615446233</v>
+        <v>0.3087393082411056</v>
       </c>
       <c r="T7">
-        <v>0.3070121615446233</v>
+        <v>0.3087393082411057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H8">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N8">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q8">
-        <v>16.39141737561067</v>
+        <v>19.77961411911567</v>
       </c>
       <c r="R8">
-        <v>16.39141737561067</v>
+        <v>178.016527072041</v>
       </c>
       <c r="S8">
-        <v>0.01023329137067702</v>
+        <v>0.01158756307506591</v>
       </c>
       <c r="T8">
-        <v>0.01023329137067702</v>
+        <v>0.01158756307506591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H9">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N9">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q9">
-        <v>95.8222610647352</v>
+        <v>96.69558886263968</v>
       </c>
       <c r="R9">
-        <v>95.8222610647352</v>
+        <v>870.2602997637571</v>
       </c>
       <c r="S9">
-        <v>0.05982259464221495</v>
+        <v>0.05664752751387718</v>
       </c>
       <c r="T9">
-        <v>0.05982259464221495</v>
+        <v>0.05664752751387718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H10">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N10">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q10">
-        <v>62.24624997686488</v>
+        <v>67.02259979024868</v>
       </c>
       <c r="R10">
-        <v>62.24624997686488</v>
+        <v>603.2033981122381</v>
       </c>
       <c r="S10">
-        <v>0.03886082564727111</v>
+        <v>0.03926409270916194</v>
       </c>
       <c r="T10">
-        <v>0.03886082564727111</v>
+        <v>0.03926409270916194</v>
       </c>
     </row>
   </sheetData>
